--- a/medicine/Enfance/Francis_Van_Wyck_Mason/Francis_Van_Wyck_Mason.xlsx
+++ b/medicine/Enfance/Francis_Van_Wyck_Mason/Francis_Van_Wyck_Mason.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Van Wyck Mason, né le 11 novembre 1901 à Boston, au Massachusetts, et mort le 29 août 1978 aux Bermudes, est un écrivain américain, auteur de nombreux romans policiers et d'espionnage, ainsi que d'ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il naît dans une famille dont les ancêtres sont arrivés en Amérique au XVIIe siècle. Puisque son grand-père est un diplomate américain en poste en Europe, le petit Francis passe les huit premières années de sa vie à Berlin et Paris. Sa famille rentre ensuite en Amérique et s'installe dans l'Illinois, mais, en 1917, alors qu'il est à peine âgé de 16 ans, il retourne en Europe et, pendant la Première Guerre mondiale, s'engage en France comme ambulancier, mais finit par s'enrôler dans l'Armée française où il devient un officier d'artillerie décorée, notamment de la Légion d'honneur. Le Jour de l'armistice, le 11 novembre 1918, il célèbre également son 17e anniversaire, rejoint la United States Army où il est promu au grade de lieutenant. Il retourne ensuite aux États-Unis, termine ses études secondaires et s'inscrit à l'Université Harvard, où il obtient en 1924 un baccalauréat en Sciences. Pendant ses années d'études, « il est arrêté par erreur pour meurtre »[1] parce qu'il a emprunté l'uniforme d'un serveur et qu'il ressemblait au garçon finalement trouvé coupable dans cette affaire.
-Après ses études, il ne parvient pas à entreprendre la carrière diplomatique qu'il désire et entreprend de nombreux voyages en Europe, en Russie, au Proche-Orient, aux Indes, en Afrique centrale, participe à une caravane pendant 9 semaines dans les régions désertiques du Sahara et parcourt à cheval l'Amérique centrale.  Il réside à New York et fait partie, de 1924 à 1929, de la cavalerie de la Garde nationale des États-Unis, où il apprend à jouer au polo. Les expériences acquises à cette époque lui sont utiles lorsqu'il décide de se lancer dans l'écriture de romans populaires. Il publie d'abord ses premières nouvelles en 1928, puis un premier roman d'aventures l'année suivante, avant d'amorcer en 1930 une série mi-policière, mi-espionnage ayant pour héros récurrent le colonel Hugh North, un intrépide et séduisant agent secret américain qui est souvent chargé d'éclaircir des affaires criminelles. Ce personnage, qui « préfigure celui de James Bond »[1] apparaît dans une vingtaine de romans et deux recueils de nouvelles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît dans une famille dont les ancêtres sont arrivés en Amérique au XVIIe siècle. Puisque son grand-père est un diplomate américain en poste en Europe, le petit Francis passe les huit premières années de sa vie à Berlin et Paris. Sa famille rentre ensuite en Amérique et s'installe dans l'Illinois, mais, en 1917, alors qu'il est à peine âgé de 16 ans, il retourne en Europe et, pendant la Première Guerre mondiale, s'engage en France comme ambulancier, mais finit par s'enrôler dans l'Armée française où il devient un officier d'artillerie décorée, notamment de la Légion d'honneur. Le Jour de l'armistice, le 11 novembre 1918, il célèbre également son 17e anniversaire, rejoint la United States Army où il est promu au grade de lieutenant. Il retourne ensuite aux États-Unis, termine ses études secondaires et s'inscrit à l'Université Harvard, où il obtient en 1924 un baccalauréat en Sciences. Pendant ses années d'études, « il est arrêté par erreur pour meurtre » parce qu'il a emprunté l'uniforme d'un serveur et qu'il ressemblait au garçon finalement trouvé coupable dans cette affaire.
+Après ses études, il ne parvient pas à entreprendre la carrière diplomatique qu'il désire et entreprend de nombreux voyages en Europe, en Russie, au Proche-Orient, aux Indes, en Afrique centrale, participe à une caravane pendant 9 semaines dans les régions désertiques du Sahara et parcourt à cheval l'Amérique centrale.  Il réside à New York et fait partie, de 1924 à 1929, de la cavalerie de la Garde nationale des États-Unis, où il apprend à jouer au polo. Les expériences acquises à cette époque lui sont utiles lorsqu'il décide de se lancer dans l'écriture de romans populaires. Il publie d'abord ses premières nouvelles en 1928, puis un premier roman d'aventures l'année suivante, avant d'amorcer en 1930 une série mi-policière, mi-espionnage ayant pour héros récurrent le colonel Hugh North, un intrépide et séduisant agent secret américain qui est souvent chargé d'éclaircir des affaires criminelles. Ce personnage, qui « préfigure celui de James Bond » apparaît dans une vingtaine de romans et deux recueils de nouvelles.
 Pendant la Seconde Guerre mondiale, tout en poursuivant les aventures du colonel North, Francis Van Wyck Mason donne ses premiers romans historiques, dont Stars on the Sea, un des best-sellers de l'année 1940. Après l'attaque de Pearl Harbor, il entend participer à l'effort de guerre. Outre la publication de récits de propagande, il s'enrôle de nouveau dans l'armée et devient le conseiller en Histoire du général Eisenhower. Il est alors promu au grade de colonel.
 Francis Van Wyck Mason a également écrit des ouvrages de littérature d'enfance et de jeunesse, notamment ceux parus pendant la Seconde Guerre mondiale sous le pseudonyme de Frank W. Mason.
 </t>
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Hugh North
-Seeds of Murder (1930)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Hugh North</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Seeds of Murder (1930)
 The Vesper Service Murders (1931) Publié en français sous le titre Vesper, le meurtrier, traduit par Simone Lechevrel, Paris, Nouvelle Revue Critique, L'Empreinte no 39, 1934 ; réédition, Paris, La Maîtrise du livre, coll. L'Empreinte-Police no 4, 1946
 Fort Terror Murders (1931) Publié en français sous le titre Le Fort de la terreur, traduit par R. Froment-Kindal, Paris, Nouvelle Revue Critique, L'Empreinte no 75, 1935 ; réédition, Paris, La Maîtrise du livre, coll. L'Empreinte-Police no 2, 1946
 The Yellow Arrow Murders (1932)
@@ -573,15 +595,129 @@
 Trouble in Burma (1962) Publié en français sous le titre La fusée perd la tête, Paris, Éditions Robert Laffont, coll. Agent secret no 7, 1964
 Zanzibar Intrigue (1963)
 Maracaibo Mission (1965)
-Deadly Orbit Mission (1968)
-Autres romans policiers
-Spider House (1932)
-The Castle Island Case (1937)
-Romans policiers signés Geoffrey Coffin
-Murder in the Senate (1935), en collaboration avec Helen Brawner
-The Forgotten Fleet Mystery (1936), en collaboration avec A. H. Young O'Brien Publié en français sous le titre Le Secret de la flotte oubliée, Montréal, Éditions Moderne limitée, coll. Petit format no 128, 1947
-Autres romans
-Captain Nemesis (1929)
+Deadly Orbit Mission (1968)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Spider House (1932)
+The Castle Island Case (1937)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans policiers signés Geoffrey Coffin</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Murder in the Senate (1935), en collaboration avec Helen Brawner
+The Forgotten Fleet Mystery (1936), en collaboration avec A. H. Young O'Brien Publié en français sous le titre Le Secret de la flotte oubliée, Montréal, Éditions Moderne limitée, coll. Petit format no 128, 1947</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Captain Nemesis (1929)
 Captain Judas (1931)
 Captain Renegade (1932)
 Captain Redspurs (1933)
@@ -615,26 +751,215 @@
 Log Cabin Noble (1973)
 Trumpets Sound No More (1975)
 Guns for Rebellion (1977)
-Armored Giants (1980), publication posthume
-Romans signés Ward Weaver
-Hang My Wreath (1941), nouvelle version de Captain Redspurs (1933)
-End Of Track (1943), nouvelle version de Captain Long Knife (1934)
-Recueils de nouvelles
-Série Hugh North
-The Seven Seas Murders (1936)
-Captain North's Three Biggest Cases (1936)
-Autre recueil de nouvelles
-Roads to Liberty (1972)
-Nouvelles
-Série Hugh North
-Murder on Swan Island (1934)
+Armored Giants (1980), publication posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans signés Ward Weaver</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hang My Wreath (1941), nouvelle version de Captain Redspurs (1933)
+End Of Track (1943), nouvelle version de Captain Long Knife (1934)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Hugh North</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Seven Seas Murders (1936)
+Captain North's Three Biggest Cases (1936)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autre recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Roads to Liberty (1972)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Hugh North</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Murder on Swan Island (1934)
 The Port of Peril (1934), aussi titré The Port of Intrigue Publié en français sous le titre Trois indices et un cadavre, Paris, Fayard, Le Saint détective magazine no 15, mai 1956
 The Repeater (1934), aussi titré Crime of the Legion Publié en français sous le titre Le Récidiviste, Paris, Opta, Mystère magazine no 10, octobre 1948 ; réédition, Paris, Opta, L'Anthologie du Mystère no 4, 1966
 Explosion (1935), aussi titré The Munition Ship Murders
 Shanghai Sanctuary (1935)
 An Enemy at the Dinner Table (1937)
-The Plum Colored Corpse (1956)
-Autres nouvelles
+The Plum Colored Corpse (1956)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Fetish of Sergeant M’Gourra (1928)
 Previous Rank (1928)
 This Battalion has a Curse on It (1928)
@@ -724,45 +1049,116 @@
 Ducks or Death (1954)
 On the Plain of Shahpur (1954)
 Salt-Water Thriller (1957)
-Ouvrages de littérature d'enfance et de jeunesse
-Valley Forge: 24 December 1777 (1950)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Valley Forge: 24 December 1777 (1950)
 The Winter at Valley Forge (1953)
 The Battle of Lake Erie (1960)
 The Battles for New Orleans (1962)
 The Battle for Quebec (1965)
-The Maryland Colony (1969)
-Ouvrages de littérature d'enfance et de jeunesse signés Frank W. Mason
-Q-Boat (1943)
+The Maryland Colony (1969)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse signés Frank W. Mason</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Q-Boat (1943)
 Pilots, Man Your Planes (1944)
 Flight Into Danger (1946)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Francis_Van_Wyck_Mason</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Van_Wyck_Mason</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>1938 : The Spy Ring, film américain réalisé par Joseph H. Lewis, d'après la nouvelle The Enemy's Goal (1935), avec William Hall, Jane Wyman et Esther Ralston
 1960 : Rewak le Rebelle (The Barbarians), film italo-américain réalisé par Rudolph Maté, d’après le roman The Barbarians (1954), avec Jack Palance, Milly Vitale et Guy Rolfe</t>
